--- a/client/storage/SampleFiles/AddSupplier.xlsx
+++ b/client/storage/SampleFiles/AddSupplier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BCA\intern_proj\first\BAT_NUXT\bat_nuxt\static\SampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BCA\intern_proj\first\BAT_loopback\bat_loopback\client\storage\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Customer Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Mobile No.</t>
   </si>
@@ -74,7 +71,13 @@
     <t>aa72</t>
   </si>
   <si>
-    <t>sunil</t>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
   </si>
 </sst>
 </file>
@@ -405,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,34 +424,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -461,54 +462,57 @@
         <v>123456789</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>390123</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
       <c r="J2">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="B3">
         <v>123456789</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3">
         <v>390123</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
       <c r="J3">
         <v>24</v>

--- a/client/storage/SampleFiles/AddSupplier.xlsx
+++ b/client/storage/SampleFiles/AddSupplier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BCA\intern_proj\first\BAT_loopback\bat_loopback\client\storage\SampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JAY\project\loopback\bat_loopback\client\storage\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Mobile No.</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
   </si>
 </sst>
 </file>
@@ -406,9 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -420,9 +425,10 @@
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -453,8 +459,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -485,8 +494,11 @@
       <c r="J2">
         <v>24</v>
       </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -516,6 +528,9 @@
       </c>
       <c r="J3">
         <v>24</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
